--- a/打印/打印说明.xlsx
+++ b/打印/打印说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,9 +72,6 @@
   <si>
     <t>当前日期的年份 减去 生日的年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
   </si>
   <si>
     <t>急救电话</t>
@@ -212,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.孕妇基本档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国籍</t>
   </si>
   <si>
@@ -478,12 +471,217 @@
     <t>husbandAge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.孕妇基本档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.首次产前检查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初检日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕前情况-身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕前情况-体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕前情况-体质指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现病史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经史-初潮年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经史-周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末次月经年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预产期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中:阴道自然分娩次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎头吸引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产钳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剖宫产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末次分娩时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇产科手术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物过敏史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初检孕周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight/height/height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>femePastHistory,pastHistoryOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastMenses</t>
+  </si>
+  <si>
+    <t>parity+parity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>femeFamilyHistory,familyHistoryOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opshistory</t>
+  </si>
+  <si>
+    <t>allergiesHistory,allergiesOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemePastHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeFamilyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeSecretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalHistory,personalHistoryOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +725,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -757,22 +961,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -784,26 +976,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -816,6 +993,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,6 +1029,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1126,17 +1332,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="62.875" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
@@ -1147,698 +1353,974 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>43</v>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="23" t="s">
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="F28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="28" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="30"/>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="H49" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="19"/>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="20" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="10"/>
+      <c r="H50" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="F34" s="2">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="3">
-        <v>4</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H48" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H49" s="8" t="s">
+      <c r="D51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H50" s="8" t="s">
+    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H51" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H52" s="8" t="s">
-        <v>95</v>
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="G36:H36"/>

--- a/打印/打印说明.xlsx
+++ b/打印/打印说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,47 +633,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>visitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemePastHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeFamilyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeSecretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalHistory,personalHistoryOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bloodTrans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visitDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diastolicPressure,systolicPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gravidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemePastHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemeFamilyHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemeSecretion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personalHistory,personalHistoryOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personinfo</t>
+    <t>BloodTrans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,8 +1033,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1332,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2018,309 +2026,350 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="H48" s="4" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H49" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="28" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="H49" s="4" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="H50" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="24" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="10"/>
-      <c r="H50" s="4" t="s">
+      <c r="C51" s="24"/>
+      <c r="D51" s="1"/>
+      <c r="H51" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>133</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>110</v>
+      <c r="C53" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="H53" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>111</v>
+      <c r="C54" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>150</v>
-      </c>
+      <c r="C55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>112</v>
+      <c r="A56" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="31" t="s">
-        <v>135</v>
-      </c>
+      <c r="C56" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>113</v>
+      <c r="A57" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>151</v>
-      </c>
+      <c r="C62" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>119</v>
+      <c r="A63" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>152</v>
-      </c>
+      <c r="C63" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>120</v>
+      <c r="A64" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>141</v>
-      </c>
+      <c r="C64" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>121</v>
+      <c r="A65" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D66" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D67" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D68" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D70" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C73" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>129</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C74" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="32" t="s">
+      <c r="C77" s="34" t="s">
         <v>146</v>
       </c>
+      <c r="D77" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="G36:H36"/>

--- a/打印/打印说明.xlsx
+++ b/打印/打印说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="228">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>fileno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.封面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,14 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.孕妇基本档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.首次产前检查表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初检日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,65 +591,334 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lastMenses</t>
+  </si>
+  <si>
+    <t>parity+parity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>femeFamilyHistory,familyHistoryOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allergiesHistory,allergiesOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravidity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemePastHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeFamilyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemeSecretion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opshistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕产史-流产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末次流产时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生缺陷儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活子女情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往妊娠合并症及并发症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体格检查心率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科检查-外阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIV抗体首次检测时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒血清学检测时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝病源学检测时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高危因素判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议转入机构及科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次随访时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避孕史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnant2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnant3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnant4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnant5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam28是检查结果,没检查时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam27是检查结果,没检查时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeBornCheckDirect,beforeBornCheckDirectOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextVisitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam03,exam03other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam04,exam04other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam05,exam05other</t>
+  </si>
+  <si>
+    <t>exam06,exam06other</t>
+  </si>
+  <si>
+    <t>exam07,exam07other</t>
+  </si>
+  <si>
     <t>无此字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lastMenses</t>
-  </si>
-  <si>
-    <t>parity+parity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parity1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>femeFamilyHistory,familyHistoryOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opshistory</t>
-  </si>
-  <si>
-    <t>allergiesHistory,allergiesOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diastolicPressure,systolicPressure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gravidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemePastHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemeFamilyHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FemeSecretion</t>
+    <t>无此字段,填入首次检查的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段,填入首次检查的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pregnant1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam01,exam01other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam02,exam02other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hepatitis01-hepatitis05是检查结果,没检查时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluation,beforeBornDirectOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无诊断结果字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无高危评分字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highRisk,highRiskRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfer,transReason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主治医师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,15 +926,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>personinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bloodTrans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BloodTrans</t>
+    <t>无此字段 填入随访医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.封面(封面 封底.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.孕妇基本档案(1-2.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.首次产前检查表-第1页(3-4.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.首次产前检查表-第2页 (5-6.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.首次产前检查表-第3页 (5-6.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDoctor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -997,6 +1270,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,9 +1295,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,12 +1315,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1340,17 +1617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="49.875" customWidth="1"/>
     <col min="4" max="4" width="62.875" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
@@ -1361,12 +1638,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
+      <c r="A2" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -1387,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1410,71 +1687,71 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1483,66 +1760,66 @@
         <v>7</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1551,109 +1828,109 @@
         <v>7</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1663,28 +1940,28 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="F28" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1">
         <v>99</v>
@@ -1701,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" s="1">
         <v>99</v>
@@ -1721,16 +1998,16 @@
         <v>5</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" s="1">
         <v>99</v>
@@ -1738,21 +2015,21 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1">
         <v>99</v>
@@ -1760,23 +2037,23 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="10"/>
       <c r="F33" s="1">
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33" s="1">
         <v>99</v>
@@ -1784,23 +2061,23 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34" s="10"/>
       <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34" s="1">
         <v>99</v>
@@ -1808,222 +2085,222 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="23"/>
+      <c r="G36" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="2">
         <v>4</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>83</v>
+        <v>100</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="G41" s="2">
         <v>5</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2035,18 +2312,18 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H49" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="H50" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="H50" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
@@ -2057,7 +2334,7 @@
       <c r="C51" s="24"/>
       <c r="D51" s="1"/>
       <c r="H51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
@@ -2071,312 +2348,798 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>147</v>
+        <v>36</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="D53" s="1"/>
       <c r="H53" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>134</v>
+        <v>36</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="32"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="6" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="33" t="s">
-        <v>138</v>
+      <c r="D60" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="33" t="s">
-        <v>139</v>
+      <c r="D61" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>140</v>
+        <v>36</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>150</v>
+        <v>36</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>151</v>
+        <v>36</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>141</v>
+        <v>36</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="33" t="s">
-        <v>138</v>
+      <c r="D68" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="33" t="s">
-        <v>138</v>
+      <c r="D69" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>143</v>
+        <v>36</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>145</v>
+        <v>36</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D77" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2388,7 +3151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/打印/打印说明.xlsx
+++ b/打印/打印说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24995" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25067" uniqueCount="292">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,10 +1042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.产前检查记录表 第2页(9-10.jpg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孕期特殊情况记录表 (11-12.jpg) 不是打印的内容应该为手填内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1063,148 @@
   </si>
   <si>
     <t>化验单 (17-18.jpg) 不是打印的内容应该为粘贴内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam02</t>
+  </si>
+  <si>
+    <t>visitDoctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段,是否为手填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段,是否为手填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段,是否为手填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无此字段,是否为手填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diastolicPressure,systolicPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeBornDirect,beforeBornDirectOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextVisitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDoctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.产前检查记录表 第2页(9-10.jpg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exam06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextVisitDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execOrgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeBornDirect,beforeBornDirectOther</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1350,11 +1488,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1396,10 +1545,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1420,25 +1588,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1742,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1761,19 +1917,19 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2063,20 +2219,20 @@
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
       <c r="F29" s="1">
         <v>1</v>
       </c>
@@ -2092,10 +2248,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="10"/>
       <c r="F30" s="1">
         <v>2</v>
@@ -2233,10 +2389,10 @@
         <v>46</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
@@ -2336,7 +2492,7 @@
       <c r="D41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="2">
@@ -2357,7 +2513,7 @@
         <v>101</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="F42" s="33"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="2"/>
       <c r="H42" s="3" t="s">
         <v>76</v>
@@ -2439,22 +2595,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
       <c r="H50" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="1"/>
       <c r="H51" s="4" t="s">
         <v>90</v>
@@ -2775,19 +2931,19 @@
       <c r="D77" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -3089,19 +3245,19 @@
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="25"/>
+      <c r="C110" s="30"/>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -3128,7 +3284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>179</v>
       </c>
@@ -3138,7 +3294,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>180</v>
       </c>
@@ -3148,7 +3304,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>181</v>
       </c>
@@ -3162,7 +3318,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>182</v>
       </c>
@@ -3176,7 +3332,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>183</v>
       </c>
@@ -3188,7 +3344,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>184</v>
       </c>
@@ -3200,7 +3356,7 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>185</v>
       </c>
@@ -3212,7 +3368,7 @@
       </c>
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>186</v>
       </c>
@@ -3224,7 +3380,7 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>187</v>
       </c>
@@ -3234,7 +3390,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="24" t="s">
         <v>218</v>
       </c>
@@ -3248,23 +3404,23 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="26" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C125" s="25"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="23" t="s">
         <v>230</v>
       </c>
@@ -3278,169 +3434,281 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="D127" s="1"/>
+      <c r="E127" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="42" t="s">
+        <v>265</v>
+      </c>
       <c r="D128" s="6"/>
+      <c r="E128" s="43">
+        <v>6</v>
+      </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="D129" s="6"/>
+      <c r="E129" s="43" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D130" s="6"/>
+      <c r="E130" s="43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>286</v>
+      </c>
       <c r="D131" s="6"/>
+      <c r="E131" s="43">
+        <v>15</v>
+      </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>269</v>
+      </c>
       <c r="D132" s="6"/>
+      <c r="E132" s="43">
+        <v>16</v>
+      </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="42" t="s">
+        <v>287</v>
+      </c>
       <c r="D133" s="6"/>
+      <c r="E133" s="43">
+        <v>17</v>
+      </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C134" s="42" t="s">
+        <v>270</v>
+      </c>
       <c r="D134" s="6"/>
+      <c r="E134" s="43">
+        <v>18</v>
+      </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>271</v>
+      </c>
       <c r="D135" s="6"/>
+      <c r="E135" s="43">
+        <v>19</v>
+      </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>272</v>
+      </c>
       <c r="D136" s="6"/>
+      <c r="E136" s="43">
+        <v>20</v>
+      </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="42" t="s">
+        <v>288</v>
+      </c>
       <c r="D137" s="6"/>
+      <c r="E137" s="43">
+        <v>21</v>
+      </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="42" t="s">
+        <v>274</v>
+      </c>
       <c r="D138" s="6"/>
+      <c r="E138" s="43">
+        <v>22</v>
+      </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D139" s="6"/>
+      <c r="E139" s="43" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D140" s="6"/>
+      <c r="E140" s="43">
+        <v>9</v>
+      </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="D141" s="6"/>
+      <c r="E141" s="44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D142" s="6"/>
+      <c r="E142" s="44">
+        <v>10</v>
+      </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
-      <c r="B147" s="25" t="s">
+      <c r="B147" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C147" s="25"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="23" t="s">
         <v>230</v>
       </c>
@@ -3454,117 +3722,187 @@
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="6"/>
+      <c r="C150" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43">
+        <v>6</v>
+      </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="6"/>
+      <c r="C151" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43" t="s">
+        <v>278</v>
+      </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="6"/>
+      <c r="C152" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="6"/>
+      <c r="C153" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43">
+        <v>15</v>
+      </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="6"/>
+      <c r="C154" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43">
+        <v>16</v>
+      </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="6"/>
+      <c r="C155" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43">
+        <v>17</v>
+      </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="6"/>
+      <c r="C156" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43">
+        <v>18</v>
+      </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="6"/>
+      <c r="C157" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43">
+        <v>19</v>
+      </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="6"/>
+      <c r="C158" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43">
+        <v>20</v>
+      </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="6"/>
+      <c r="C159" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43">
+        <v>21</v>
+      </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="6"/>
+      <c r="C160" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43">
+        <v>22</v>
+      </c>
     </row>
     <row r="161" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="6"/>
+      <c r="C161" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="162" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="6"/>
+      <c r="C162" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43">
+        <v>9</v>
+      </c>
     </row>
     <row r="163" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
@@ -3572,15 +3910,26 @@
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="6"/>
+      <c r="D163" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E163" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="6"/>
+      <c r="C164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E164" s="44">
+        <v>10</v>
+      </c>
     </row>
     <row r="165" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
@@ -3592,7 +3941,9 @@
       <c r="C165" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D165" s="1"/>
+      <c r="D165" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>184</v>
       </c>
@@ -44554,7 +44905,9 @@
       <c r="C166" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D166" s="6"/>
+      <c r="D166" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="E166" s="1" t="s">
         <v>185</v>
       </c>
@@ -85516,26 +85869,28 @@
       <c r="C167" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D167" s="1"/>
+      <c r="D167" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="168" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A168" s="38"/>
+      <c r="A168" s="25"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="39"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26"/>
     </row>
     <row r="171" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A171" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
+      <c r="A171" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B171" s="29"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
     </row>
     <row r="172" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="41"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="28"/>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:16384" x14ac:dyDescent="0.15">
@@ -85545,19 +85900,19 @@
       <c r="D173" s="1"/>
     </row>
     <row r="175" spans="1:16384" x14ac:dyDescent="0.15">
-      <c r="A175" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
+      <c r="A175" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B175" s="29"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
     </row>
     <row r="176" spans="1:16384" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
-      <c r="B176" s="25" t="s">
+      <c r="B176" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C176" s="25"/>
+      <c r="C176" s="30"/>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -85575,19 +85930,19 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
+      <c r="A180" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C181" s="25"/>
+      <c r="C181" s="30"/>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -85605,19 +85960,19 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
+      <c r="A184" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C185" s="25"/>
+      <c r="C185" s="30"/>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
@@ -85635,19 +85990,19 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
+      <c r="A188" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B188" s="29"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="C189" s="25"/>
+      <c r="C189" s="30"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
@@ -85665,15 +86020,34 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
+      <c r="A193" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B193" s="29"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="F41:F42"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="B189:C189"/>
     <mergeCell ref="A193:D193"/>
@@ -85682,25 +86056,6 @@
     <mergeCell ref="B181:C181"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="B185:C185"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -85710,14 +86065,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
